--- a/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,62%</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 3,89</t>
+          <t>-8,8; 9,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 6,99</t>
+          <t>-6,31; 9,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 18,9</t>
+          <t>-6,71; 10,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,48; 32,91</t>
+          <t>-8,08; 10,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 70,87</t>
+          <t>-10,56; 12,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 161,34</t>
+          <t>-6,98; 12,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 13,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 14,22</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>14,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,33%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 8,58</t>
+          <t>5,51; 25,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 5,77</t>
+          <t>-3,21; 15,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 12,95</t>
+          <t>-8,42; 14,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 76,78</t>
+          <t>-8,33; 11,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 54,9</t>
+          <t>6,87; 39,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 108,9</t>
+          <t>-3,7; 20,45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 21,97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 14,9</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>25,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,85</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-16,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-47,28%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-8,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 15,21</t>
+          <t>-3,67; 62,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 2,05</t>
+          <t>-10,01; 25,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 10,11</t>
+          <t>-34,4; -2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-64,01; 253,72</t>
+          <t>-27,3; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,64; 11,41</t>
+          <t>-5,74; 229,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 85,44</t>
+          <t>-10,45; 35,08</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,44; -2,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 15,88</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,74</t>
+          <t>2,26; 17,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,0</t>
+          <t>-2,08; 10,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,72</t>
+          <t>-6,42; 6,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 38,86</t>
+          <t>-6,06; 6,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 22,64</t>
+          <t>3,02; 26,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 81,78</t>
+          <t>-2,32; 13,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 8,78</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 8,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1188040865890971</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.81217054360815</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.440217573986891</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.347232827233769</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.001496107947575491</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03359850066510334</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.02953840728599205</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.01634913298815205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,8; 9,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 9,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 10,47</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 10,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-10,56; 12,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 12,65</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 13,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 14,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.300577176507884</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.695782002948459</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.42261405228683</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.82602184842706</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1109257327011862</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.06370170525661047</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.07252373911764855</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08738023051362395</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.688157938575072</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.6641318748214</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.97684099619046</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.59994847315556</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1153219937155226</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1387267155644775</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1438029405283628</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1384640007389731</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,82</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,49%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 25,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 15,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,42; 14,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 11,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 39,03</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 20,45</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 21,97</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-9,58; 14,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.73903320925378</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.372223266316535</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.8288426625095879</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.292340682695448</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2215338654861275</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.09213190945952676</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.01113022654843207</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01630181378327425</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>25,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>45,66%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-16,97%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-8,26%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.292122497550945</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.894281643282109</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.986392316131</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.639413134679911</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.08026410159016294</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.02106276796550668</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1370304199518682</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1013609281665793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 62,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 25,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-34,4; -2,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,3; 12,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 229,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 35,08</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; -2,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,76; 15,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>28.58915150664191</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.31944109918143</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.09659968556515</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.14765455233937</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4734632679934325</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2431679144507056</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1771050179992057</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1510576068332637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>26.97073236802084</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.512939277126227</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.59006638223802</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.063347080324744</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.4926747914546468</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.05076481635113144</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1454722183761432</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.08054954738577348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 17,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 10,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 6,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 6,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 26,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 13,07</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 8,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 8,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.958604978603367</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.489262496138217</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-31.17632613337115</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.36028674026369</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.05028227010205102</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.09929048296381875</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3255793822663753</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2757184607327427</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.62596835976514</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>26.28408391412743</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.096310934678967</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.55927797791051</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.434950848795129</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.3766896566694819</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.009781432178288986</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.181007979488658</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.377230418087223</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.826827175866921</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1235526058611103</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4077010698792183</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1278144338954837</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.05832253339940659</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.001536293048984229</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.004986232163041388</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.458836086823019</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.760158500704147</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.72385132935928</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.967626033193716</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.03137465666146115</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.008547639127896094</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08155863384576659</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.06974542872119117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.74603075426508</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.51607656161556</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.723526067405608</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.978544421658921</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2672520552620044</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1458611732243606</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.08870121881832682</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.09116171369465571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
